--- a/medicine/Enfance/Alice_et_les_Félins/Alice_et_les_Félins.xlsx
+++ b/medicine/Enfance/Alice_et_les_Félins/Alice_et_les_Félins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice_et_les_F%C3%A9lins</t>
+          <t>Alice_et_les_Félins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et les Félins (titre original : The Search for the Silver Persian, littéralement : À la recherche du persan argenté) est le 114e[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. 
+Alice et les Félins (titre original : The Search for the Silver Persian, littéralement : À la recherche du persan argenté) est le 114e roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. 
 Aux États-Unis, le roman a été publié pour la première fois en 1993 par Simon &amp; Schuster (New York). En France, il est paru la première fois en 1996 chez Hachette dans la collection « Bibliothèque verte » sous le numéro 490 et n'a pas été réédité en France depuis l'an 2000.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alice_et_les_F%C3%A9lins</t>
+          <t>Alice_et_les_Félins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée parue en 1996 en langue française.
 Alice et ses amies Bess et Marion, se rendent à une exposition féline internationale dans leur ville de River City. Elles y rencontrent leur ancienne baby-sitter, Andrea, venue faire concourir son magnifique chat persan, Pacha, déjà choisi pour être la vedette d'un futur spot publicitaire. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice_et_les_F%C3%A9lins</t>
+          <t>Alice_et_les_Félins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,14 +562,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages récurrents
-Alice Roy, jeune fille blonde de dix-huit ans[2], fille de l'avocat James Roy, orpheline de mère.
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alice Roy, jeune fille blonde de dix-huit ans, fille de l'avocat James Roy, orpheline de mère.
 Bess Taylor, jeune fille blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb, jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
-James Roy[3], avoué de renom, père d'Alice Roy, veuf.
-Sarah, la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.
-Personnages spécifiques à ce roman
-Andrea Cassidy, l'ancienne baby-sitter d'Alice, Bess et Marion.
+James Roy, avoué de renom, père d'Alice Roy, veuf.
+Sarah, la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_et_les_Félins</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_et_les_F%C3%A9lins</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages spécifiques à ce roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Andrea Cassidy, l'ancienne baby-sitter d'Alice, Bess et Marion.
 Ted Cassidy, le mari d'Andrea, propriétaire d'une épicerie de luxe à River City.
 Winona Bell, dame rondelette de 60 ans, éleveuse de chats.
 Sean Dunleavy, célèbre éleveur anglais de chats, petit homme blond à moustache.
@@ -567,34 +620,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alice_et_les_F%C3%A9lins</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alice_et_les_Félins</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_et_les_F%C3%A9lins</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1996 : Éditions Hachette, collection Bibliothèque verte, souple (français, version originale), volume au fond bleu marine, no 490. Illustré par Pierre-Olivier Vincent (8 illustrations in-texte en noir et blanc de pleine page). Couverture illustrée par Philippe Daure[4]. Texte français de Jean Esch. 15 chapitres. 255 p. 
-1998 : Éditions Hachette, collection Bibliothèque verte, souple (français, version originale), no 490. Réédition. Illustré par Pierre-Olivier Vincent. Couverture illustrée par Philippe Daure[4]. Texte français de Jean Esch. 15 chapitres. 255 p. </t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1996 : Éditions Hachette, collection Bibliothèque verte, souple (français, version originale), volume au fond bleu marine, no 490. Illustré par Pierre-Olivier Vincent (8 illustrations in-texte en noir et blanc de pleine page). Couverture illustrée par Philippe Daure. Texte français de Jean Esch. 15 chapitres. 255 p. 
+1998 : Éditions Hachette, collection Bibliothèque verte, souple (français, version originale), no 490. Réédition. Illustré par Pierre-Olivier Vincent. Couverture illustrée par Philippe Daure. Texte français de Jean Esch. 15 chapitres. 255 p. </t>
         </is>
       </c>
     </row>
